--- a/Ecommerce/dibsAutomation/src/test/resources/testData/TestData.xlsx
+++ b/Ecommerce/dibsAutomation/src/test/resources/testData/TestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1455" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="2055" yWindow="1455" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="TestSuite" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
+    <sheet name="TandE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Environment</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Modules</t>
-  </si>
-  <si>
     <t>GLOBAL_MAX_TIMEOUT</t>
   </si>
   <si>
@@ -51,15 +49,9 @@
     <t>DriverPath_chrome</t>
   </si>
   <si>
-    <t>Download_dir</t>
-  </si>
-  <si>
     <t>PathOfReport</t>
   </si>
   <si>
-    <t>ExtentReportConfigFile</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -114,9 +106,6 @@
     <t>Login_Application</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>C:\\POMFramework\\chromedriver\\chromedriver.exe</t>
   </si>
   <si>
@@ -157,13 +146,49 @@
   </si>
   <si>
     <t>User can seelct products from using dashboard widzet</t>
+  </si>
+  <si>
+    <t>SelectItemFromTandE_Gadgets</t>
+  </si>
+  <si>
+    <t>login||Y||Y,selectProductFromToysAndEntertainment||Y||Y</t>
+  </si>
+  <si>
+    <t>Customer select products under T&amp;E category Gadgets</t>
+  </si>
+  <si>
+    <t>TandE</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>SplOffers</t>
+  </si>
+  <si>
+    <t>PriceRange</t>
+  </si>
+  <si>
+    <t>FREE delivery/On sale</t>
+  </si>
+  <si>
+    <t>US$ 50 to US$ 100</t>
+  </si>
+  <si>
+    <t>Multicolor RGB LED Fans</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>Gadgets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +202,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,9 +236,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -522,19 +556,16 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,68 +576,56 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2">
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
@@ -617,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -633,40 +652,40 @@
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -674,28 +693,51 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -720,30 +762,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -762,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -776,37 +818,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -815,4 +857,85 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>